--- a/ML/precios_ml.xlsx
+++ b/ML/precios_ml.xlsx
@@ -2,24 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="717" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS IPHONE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS SMART TV" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARTICULOS Y PRECIOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS TIENDA FUTBOL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CALZADO SPORT78" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS MARCA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS FLUID IND" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS CALZADO FLUID" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS CALZADO BLAST" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS ACCESORIOS FLUID" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS INDUMENTARIA SPORT78" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS IPHONE" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRECIOS SMART TV" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$$-es-AR] * #,##0.00_-;-[$$-es-AR] * #,##0.00_-;_-[$$-es-AR] * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-es-AR] * #,##0.00_-;-[$$-es-AR] * #,##0.00_-;_-[$$-es-AR] * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -50,12 +57,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -418,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,501 +454,866 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Celular Apple iPhone 6 32gb 1gb Ram 8mp Liberado 8mp</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>59999</v>
+          <t>DRIBBLING - INFLADOR MINI</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Celular Reacondicionado iPhone 6s 16gb 2gb Ram Ios Original</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>64999</v>
+          <t>GIVOVA - MEDIAS NEWELLS OLD BOYS</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1939</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Celular iPhone 7 32gb 2gb Ram 12mp 7mp Apple Original </t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>89999</v>
+          <t>78 - MEDIAS PANTORRILLERA</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 6s Plus 32 GBgris espacial</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>92990</v>
+          <t>78 - PANTORRILLERA FUTBOL</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Celular Apple iPhone 7 128gb 2gb Ram Liberado 12mp Original</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>119999</v>
+          <t>78 - MEDIAS PANTORILLERA</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>iPhone 8 64gb Celular Liberado Refabricado Gris Espacial</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>139999</v>
+          <t>78 - BOTINERO 78 ROSARIO</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>3489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus 128 GB plata</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>149000</v>
+          <t>ADIDAS - MEDIAS UNIFORME TITULAR ARGENTINA 22</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>3499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 8 64 GB  gris espacial</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>174999</v>
+          <t>TOPPER - BOTINERO STRIKER</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>4319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (3ª generación, 64 GB) - Blanco estelar</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>183299</v>
+          <t>PUMA - GORRO PILUSO CAI</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>4499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 8 256 GB  gris espacial</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>194999</v>
+          <t>UMBRO - PELOTA NEO SWERVE</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>4699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (2da generación) 64 GB - Negro</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>197999</v>
+          <t>ATHIX - PELOTA SEATTLE</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Apple iPhone 11 (64 GB) - Negro</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>206464</v>
+          <t>NIKE - GUANTE MATCH LIGHT</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>5999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 8 Plus 256 GB  oro</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>209750</v>
+          <t>UHLSPORT - GUANTE PURE ALLIANCE</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>6499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone SE 64 GBgris espacial</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>209990</v>
+          <t>NIKE - PELOTA FUTSAL MAESTRO</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>7299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (2da generación) 128 GB - Negro</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>215999</v>
+          <t>78 - PELOTA GALAXY N°3</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>7989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>iPhone SE (2nd Generación) 128 Gb - Negro</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>215999</v>
+          <t>NIKE - PELOTA LIVERPOOL LFC STRIKE</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>8299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (3ª generación, 128 GB) - Azul medianoche</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>219999</v>
+          <t>78 - PELOTA GALAXY</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>8989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apple iPhone XR 64 GB - Azul</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>220000</v>
+          <t>78 - PELOTA CARDIFF 3.0</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>9989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Apple iPhone 11 (128 GB) - (PRODUCT)RED</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>237330</v>
+          <t>ADIDAS - PELOTA CLUB AL RIHLA</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>9999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Apple iPhone XR 128 GB - (PRODUCT)RED</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>238999</v>
+          <t>ADIDAS - PELOTA RIHLA CLUB</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>9999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (2da generación) 256 GB - (PRODUCT)RED</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>263999</v>
+          <t>ADIDAS - PELOTA ARGENTINA AL RIHLA</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>9999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 (64 GB) - Verde</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>269999</v>
+          <t>PENALTY - PELOTA FUTSAL MAX 500</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>10739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 (64 Gb) - (product)red</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>269999</v>
+          <t>78 - PELOTA PRO CHAMPION</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>10989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Apple iPhone SE (3ª generación, 256 GB) - Blanco estelar</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>279999</v>
+          <t>ADIDAS - MOCHILA BOCA JUNIORS</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>10999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iPhone 8 Plus 64 GB  oro</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>287495</v>
+          <t>ADIDAS - PELOTA AL RIHLA TRAINING</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>12999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 mini (64 GB) - Morado</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>309990</v>
+          <t>ADIDAS - PELOTA RIHLA TRAINING</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>12999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 (128 GB) - Azul</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>314999</v>
+          <t>NASSAU - PELOTA MAGIC Nº4</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>14999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 mini (128 GB) - Azul</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>322299</v>
+          <t>ADIDAS - PELOTA AL RIHLA LEAGUE</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>17999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Apple iPhone SE 3ªgen.2022-incluye Cargador-cuotas S/interes</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>344990</v>
+          <t>ADIDAS - PELOTA AL RIHLA LEAGUE BOX</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>19999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro 64 GB Plata</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>345000</v>
+          <t>NIKE - PELOTA COPA AMERICA FLIGHT 21</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>25999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 mini (128 GB) - (PRODUCT)RED</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>349999</v>
+          <t>ADIDAS - PELOTA AL RIHLA COMPETITION</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>26999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 Gb) - Azul Medianoche (negro)</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>375999</v>
+          <t>NIKE - PELOTA CSF FLIGHT CONMEBOL</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>28599</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Apple iPhone 11 (128 Gb) - Negro Gtia Oficial Cuotas</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>379990</v>
+          <t>ADIDAS - PELOTA AL RIHLA PRO</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smart Tv Quint Frameless Qt1-43frameless Led Full Hd 43 </t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>39999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Smart TV Philips 6800 Series 32PHD6825/77 LED HD 32" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>40999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Smart TV TCL S60A-Series L32S60A LED HD 32" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Smart TV Samsung Series 7 UN50AU7000GCZB LED 4K 50" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Noblex Dk50x9500 Qled 4k 50 Black Series</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46880</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Smart TV Samsung Series 6 QN55Q60AAGCZB QLED 4K 55" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>46999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Smart TV Hyundai HYLED-40FHD5A Full HD 40" 220V</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>48999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Smart TV RCA XF32SM LED HD 32" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>48999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Smart TV Philips 55PUD7906/77 LED 4K 55" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>48999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Smart TV Samsung Series 7 UN43AU7000GCZB LED 4K 43" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>50999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smart TV Feelnology F4321FS5 LED Full HD 43" 220V</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>51999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Televisor Tcl Smart Tv 32'' Hd Dolby Audio 60hz Android Tv</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>52999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Televisor Tcl Smart Tv 40'' Led Full Hd Hdr 60hz Android Tv</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>52999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smart TV Noblex DM43X7100 LED Full HD 43" 220V</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>53999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Smart TV Hitachi CDH-LE504KSMART22 LED 4K 50" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>55989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Smart Tv Bgh 32 Pne040257 Hd Led 100-240v</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>56999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smart TV Samsung Series 5 UN43T5300AGCZB LED Full HD 43" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>58499</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Smart Tv Tedge Teled-42fhd6 42  Led Full Hd 220v Youtube Netflix</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>59999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Smart TV BGH B5021UH6A LED 4K 50" 220V</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>59999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Smart TV Philips 43PFD6917/77 LED Full HD 43" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>60999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smart TV TCL S65A-Series L40S65A LED Full HD 40" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>63999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Smart TV Philips 6600 Series 50PUD6654/77 LED 4K 50" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>65299</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Smart TV AOC 43S5295/77G LED Full HD 43" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>68499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Smart TV Hitachi CDH-LE32SMART19 LCD HD 32" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>68999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Smart TV Philips 7000 Series 50PUD7406/77 LED 4K 50" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>70999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smart Tv Bgh B4321fh5a Led Full Hd 43</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>72999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Smart TV LG AI ThinQ 43LM6350PSB LED Full HD 43" 220V</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>76599</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Smart Tv Noblex Dk43x5100 Led Full Hd 43</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>76899</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Smart Tv Tedge Led 4k Uhd 50 Pulgadas</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>76999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smart Tv Tedge 50 50uhd6 4k Uhd Netflix Youtube </t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>77799</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Smart Tv Philips 43 4k Uhd Android  Pud7407/77 110v-240v</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>79999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Smart TV Samsung Series 7 UN55AU7000GCZB LED 4K 55" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>79999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Smart TV Noblex DJ50X6500 LED 4K 50" 220V</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>81299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 mini (256 GB) - Azul</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>399999</v>
+          <t>Smart TV Telefunken TK3219K5 LED HD 32" 220V</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>84769</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Mini 128gb-incluye Cargador Usb-c- Garantia</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>409990</v>
+          <t>Smart TV BGH B3219K5 LED HD 32" 220V</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>85499</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (256 GB) - Rosa</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>415999</v>
+          <t>Smart Tv 32 Philips Android Hd 32phd6917/77 110-240v</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>85999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 (256 GB) - Verde</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>415999</v>
+          <t>Smart TV LG AI ThinQ 32LM620BPSA LED HD 32" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>97499</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 GB) - Azul</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>421999</v>
+          <t>Smart TV Philips 7000 Series 55PUD7406/77 LED 4K 55" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>97999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (512 GB) - Azul</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>439999</v>
+          <t>Smart Tv Tcl 32 Hd 32s61e Android Tv</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>99999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro (256 GB) - Plata</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>492969</v>
+          <t>Televisor Tedge Smart Tv 32  Hd Pantalla Led</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>102499</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro Max (128 GB) - Grafito</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>495048</v>
+          <t>Smart TV Hitachi CDH-LE504KSMART21-F LED 4K 50" 220V</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>103990</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro Max (128 Gb) - Plata</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>499999</v>
+          <t>Smart TV Samsung UN32T4300AGXZD LED HD 32"</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>104999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Pro (256 GB) - Azul pacífico</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>509990</v>
+          <t>Smart TV Noblex 91DM32X7000PI LED HD 32" 220V</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>106652</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro 256 GB Gris espacial</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>509990</v>
+          <t>Smart TV TCL P725-Series L50P725 LED 4K 50" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>107999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Pro Max (256 GB) - Grafito</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>544400</v>
+          <t>Smart TV Samsung Series 4 UN32T4300AGCZB LED HD 32" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>107999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro Max (256 GB) - Grafito</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>549999</v>
+          <t>Smart TV TCL 50P715 LED 4K 50" 100V/240V</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>119999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro (512 GB) - Oro</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>604999</v>
+          <t>Smart TV Philips 6800 Series 43PFD6825/77 LED Full HD 43" 110V/240V</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>122488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro Max (512 GB) - Grafito</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>621682</v>
+          <t xml:space="preserve">Smart Tv Tcl L50p615 50   4k Uhd Android Tv </t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>129999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro 128gb-incluye Cagador-cuotas Sin Interes</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>659990</v>
+          <t>Smart TV Philco PLD39HS21CH LED Full HD 39" 220V</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>183990</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 Pro Max (1 TB) - Plata</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>757999</v>
+          <t>Smart TV Samsung Series 7 UN65AU7000GCZB LED 4K 65" 220V - 240V</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>194990</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,501 +1354,351 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smart Tv Quint Frameless Qt1-43frameless Led Full Hd 43 </t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>39999</v>
+          <t>ADDNICE - ZAPATILLAS GANGES</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>9499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Smart TV Philips 6800 Series 32PHD6825/77 LED HD 32" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>40999</v>
+          <t>ATOMIK - ZAPATILLAS DEP KURT</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smart TV TCL S60A-Series L32S60A LED HD 32" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44190</v>
+          <t>UMBRO - BOTINES SINTETICO ULTRASKIN</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>10489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Smart TV Samsung Series 7 UN50AU7000GCZB LED 4K 50" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44999</v>
+          <t>TOPPER - ZAPATILLAS BEAT</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>10999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Noblex Dk50x9500 Qled 4k 50 Black Series</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46880</v>
+          <t>TOPPER - ZAPATILLAS DRIVE</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>11299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Smart TV Samsung Series 6 QN55Q60AAGCZB QLED 4K 55" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46999</v>
+          <t>HEAD - ZAPATILLAS SAN FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>11589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Smart TV Hyundai HYLED-40FHD5A Full HD 40" 220V</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>48999</v>
+          <t>HEAD - ZAPATILLAS GANGES</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>11989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Smart TV RCA XF32SM LED HD 32" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>48999</v>
+          <t>TOPPER - ZAPATILLAS DAKOTA</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>13339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Smart TV Philips 55PUD7906/77 LED 4K 55" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>48999</v>
+          <t>PUMA - BOTINES ULTRA 4.4 FG/AG</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>14499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Smart TV Samsung Series 7 UN43AU7000GCZB LED 4K 43" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>50999</v>
+          <t>FILA - ZAPATILLAS RACER ADVANTAGE</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>14989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smart TV Feelnology F4321FS5 LED Full HD 43" 220V</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>51999</v>
+          <t>TOPPER - ZAPATILLAS T-PADEL</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>15299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Televisor Tcl Smart Tv 32'' Hd Dolby Audio 60hz Android Tv</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>52999</v>
+          <t>UNDER ARMOUR - ZAPATILLAS CHARGED QUEST</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>19899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Televisor Tcl Smart Tv 40'' Led Full Hd Hdr 60hz Android Tv</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>52999</v>
+          <t>PUMA - ZAPATILLAS MUSE X3</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>20999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smart TV Noblex DM43X7100 LED Full HD 43" 220V</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>53999</v>
+          <t>FILA - ZAPATILLAS KR5</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>22989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Smart TV Hitachi CDH-LE504KSMART22 LED 4K 50" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>55989</v>
+          <t>NEW BALANCE - ZAPATILLAS FRESH FOAM ALTOH</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>24749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Smart Tv Bgh 32 Pne040257 Hd Led 100-240v</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>56999</v>
+          <t>PRINCE - ZAPATILLAS T22</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>25499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Smart TV Samsung Series 5 UN43T5300AGCZB LED Full HD 43" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>58499</v>
+          <t>SAUCONY - ZAPATILLAS AXON</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>25719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Smart Tv Tedge Teled-42fhd6 42  Led Full Hd 220v Youtube Netflix</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>59999</v>
+          <t>NEW BALANCE - ZAPATILLAS FRESH FOAM BEACON V3</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>26499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Smart TV BGH B5021UH6A LED 4K 50" 220V</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>59999</v>
+          <t>SALOMON - ZAPATILLAS PATROL</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>26699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Smart TV Philips 43PFD6917/77 LED Full HD 43" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>60999</v>
+          <t>PUMA - ZAPATILLAS RUN XX NITRO WNS</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>28999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smart TV TCL S65A-Series L40S65A LED Full HD 40" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>63999</v>
+          <t>ADIDAS - ZAPATILLAS X9000L2 H.RDY W</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>29999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Smart TV Philips 6600 Series 50PUD6654/77 LED 4K 50" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>65299</v>
+          <t>ADIDAS - ZAPATILLAS X9000L4</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>32989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Smart TV AOC 43S5295/77G LED Full HD 43" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>68499</v>
+          <t>NIKE - ZAPATILLAS AIR ZOOM PEGASUS 39</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>32999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Smart TV Hitachi CDH-LE32SMART19 LCD HD 32" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>68999</v>
+          <t>SAUCONY - ZAPATILLAS RIDE 14</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>33239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Smart TV Philips 7000 Series 50PUD7406/77 LED 4K 50" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>70999</v>
+          <t>UNDER ARMOUR - ZAPATILLAS W HOVR PHANTOM 2</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>33899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Smart Tv Bgh B4321fh5a Led Full Hd 43</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>72999</v>
+          <t>SAUCONY - ZAPATILLAS FREEDOM 4</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>35609</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Smart TV LG AI ThinQ 43LM6350PSB LED Full HD 43" 220V</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>76599</v>
+          <t>ADIDAS - ZAPATILLAS BARRICADE 12</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>35689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Smart Tv Noblex Dk43x5100 Led Full Hd 43</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>76899</v>
+          <t>ADIDAS - ZAPATILLAS SUPERNOVA+</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>36999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Smart Tv Tedge Led 4k Uhd 50 Pulgadas</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>76999</v>
+          <t>SAUCONY - ZAPATILLAS ENDORPHIN SHIFT 2</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>39469</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smart Tv Tedge 50 50uhd6 4k Uhd Netflix Youtube </t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>77799</v>
+          <t>NEW BALANCE - ZAPATILLAS M1080</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>43499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Smart Tv Philips 43 4k Uhd Android  Pud7407/77 110v-240v</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>79999</v>
+          <t>ADIDAS - ZAPATILLAS SOLARGLIDE 5</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>43999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Smart TV Samsung Series 7 UN55AU7000GCZB LED 4K 55" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>79999</v>
+          <t>ASICS - ZAPATILLAS GEL-NIMBUS 24</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>44489</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Smart TV Noblex DJ50X6500 LED 4K 50" 220V</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>81299</v>
+          <t>ADIDAS - ZAPATILLAS 4DFWD PULSE KICK</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>49999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Smart TV Telefunken TK3219K5 LED HD 32" 220V</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>84769</v>
+          <t>ADIDAS - ZAPATILLAS ULTRABOOST 22</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>55999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Smart TV BGH B3219K5 LED HD 32" 220V</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>85499</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Smart Tv 32 Philips Android Hd 32phd6917/77 110-240v</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>85999</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Smart TV LG AI ThinQ 32LM620BPSA LED HD 32" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>97499</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Smart TV Philips 7000 Series 55PUD7406/77 LED 4K 55" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>97999</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Smart Tv Tcl 32 Hd 32s61e Android Tv</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Televisor Tedge Smart Tv 32  Hd Pantalla Led</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>102499</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Smart TV Hitachi CDH-LE504KSMART21-F LED 4K 50" 220V</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>103990</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Smart TV Samsung UN32T4300AGXZD LED HD 32"</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>104999</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Smart TV Noblex 91DM32X7000PI LED HD 32" 220V</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>106652</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Smart TV TCL P725-Series L50P725 LED 4K 50" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>107999</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Smart TV Samsung Series 4 UN32T4300AGCZB LED HD 32" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>107999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Smart TV TCL 50P715 LED 4K 50" 100V/240V</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>119999</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Smart TV Philips 6800 Series 43PFD6825/77 LED Full HD 43" 110V/240V</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>122488</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smart Tv Tcl L50p615 50   4k Uhd Android Tv </t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>129999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Smart TV Philco PLD39HS21CH LED Full HD 39" 220V</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>183990</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Smart TV Samsung Series 7 UN65AU7000GCZB LED 4K 65" 220V - 240V</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>194990</v>
+          <t>NORTHLAND - ZAPATILLAS SCAMOSCIATO 16 G</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>84719</v>
       </c>
     </row>
   </sheetData>
@@ -1488,14 +1712,3147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fidji - REMERA SURF</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fidji - REMERA SSKULL</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fidji - REMERA LOCAL</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fidji - REMERA FRED</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>billabong - REMERA SUMMER</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>althon - REMERA PUDDLE</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rip curl - REMERA CLASSIC RLX FIT</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>rip curl - REMERA STD CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lala - PANTALON AMERICAN GIRLS</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lala - CAMISA LEÑADORA D2</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>rip curl - SWEATER OLD CLASSIC</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>oneill - BUZO FOLFKLORE</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fidji - BUZO CHUKY</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>rusty - PANTALON JOGGING FLEET</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lala - CHALECO SHINNY</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>billabong - BUZO GOLD COAST</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rusty - CANGURO VODDO</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rusty - CANGURO MONTIEL</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vans - BUZO BIG CHEST</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>12399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>billabong - SWEATER ALL DAY</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rusty - BUZO DIXIE</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>13189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rusty - SWEATER WORDIS</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>13189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>quiksilver - BUZO SLOW SHOW</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>13499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rip curl - CANGURO RUSTIC LOOSE</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>quiksilver - BUZO HUE</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>14499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>This is BP - BUZO POLAR SENDERISMO</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>14659</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>santa cruz - CANGURO LOOSE BATIK</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>lala - CAMPERA PUFFER</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>quiksilver - CANGURO TOWN HALL</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>quiksilver - CANGURO RAINBOW</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nike - CANGURO GFX</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>quiksilver - PILOTIN ANORAK EVERYDAY</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fidji - CAMPERA PARKA URITORCO</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>21989</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>adidas - CAMPERA OUTER STATION</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>rusty - CAMPERA WHISPER PUFFER</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>29689</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>billabong - CAMPERA HUT</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>36999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>rusty - CAMPERA AMBER LONG</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>billabong - CAMPERA ANORAK SNOW PASSAGE</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>74499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="90" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MARCA</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>12399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>13189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>13189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>13499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>14499</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>14659</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>21989</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>29689</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>36999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>fidji</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>REMERA SURF</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>74499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SANDALIAS CLASSIC</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CHINELAS SLIDE ON LA COSTA</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>9899</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS BYRON BAY</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CHINELAS MALIBU SLIDE</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS VENICE</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS TRASE</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>13199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS SABALO</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>13289</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS YONKERS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>13749</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS ERA NAVY</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BOTAS CHUCK TAYLOR ALL STAR</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BOTAS CHUCK TAYLOR ALL STAR HI</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OJOTAS KILLER POINT</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>15989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS STOKE OX</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>16199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS ANDREUSS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>16469</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MIDWAY SN</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MIDWAY.</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS TRASE SD</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS NET STAR OX</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>16999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MANUAL RE</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS SB CHRON 2</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>19249</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BOTAS MANUAL HI</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MANUAL HI SD</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BOTAS MANUAL HI SD</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS OLD SKOOL</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>20899</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MANTECA SS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>20989</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS STAG LITE</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>20999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BOTAS U SK8-HI</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>23499</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BOTAS COSTAS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS PUIG</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>25999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BOTAS PENSFORD SS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BOTAS PUELO</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BOTAS GAR CVJI</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>29499</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS  COURT GRAFFIK</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>30499</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS ULTRARANGE EXO SE</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>32899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS STOKE OX</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>16199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS CHUCK TAYLOR LIFT OX</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>17499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS FUTURE RIDER DISPLACED ADP</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>19499</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS SUPERSTAR 360C BOLA DE NIEVE</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BOTAS RIVAL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS WS327</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>20499</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS OLD SKOOL DIVINE</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS D-FORMATION</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>20989</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS CA PRO CLASSIC</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>20999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS OAKMONT SL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>21989</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MS327 WN1</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS WAFFLE TRAINER 2</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>22499</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BOTAS SK8 HI DIVINE</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>23499</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS MULTIX W</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS RENNO N-GENERATION</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>24989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS RS-FAST LIMITER</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS TRC BLAZE HC</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BOTAS NIZZA</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS RETROPY F2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS CRATER IMPACT</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>27499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS HER COURT</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>27999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS BLAZER LOW 77 PREMIUM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>28599</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS WAFFLE ONE CRATER</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>28599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS STORM 96</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>29989</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS ASTIR W</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS W AIR HUARACHE</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>31899</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS SUPESTAR W</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS OZELIA</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>32999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS AIR MAX PRE-DAY</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>32999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BOTAS FORUM MID</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>36999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS FORUM LOW RT</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>36999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BOTAS FORUM MID SWAROVSKI</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>37999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BOTAS FORUM MID W</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>37999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS NMD_R1</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>38999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BOTAS FORUM EXHIBIT MID</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>38999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZAPATILLAS TRIPLE PLATFORUM RICH MNISI</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>41999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MEDIAS BOLD CREW</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MEDIAS TERMICA LINEAL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MEDIAS TERMICAS T</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MEDIAS TERMICAS HEXA</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MEDIAS INTRO</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MEDIAS POPPY TRAILS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SOMBRERO AUSTRALIAN</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MORRAL TRUTH</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GORRA WEEKEND</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MORRAL GENERATION</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CARTERA ABOUT YOU</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GORRO V21 GRAPHIC</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RIÑONERA HYDRO ECO</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GORRA DRIVER 2.0</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RUEDAS SKATE 54MM X4</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ANTIPARRAS TEK C6</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>12549</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MOCHILA WONDER 22L</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>12899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MONOPATIN FLOW</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AURICULARES UPRISE</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>13399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MOCHILA BOARD FALLEN</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PARLANTE NO BOUNDS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>15949</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SKATE VISITOR MORAL</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>18959</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TABLA LONGBOARD UNIVERSE</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>19949</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AURICUALRES POSITIVE VIBRATION XL</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>22899</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SKATE VADER</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ANTIPARRAS O FRAME 2.0 PRO</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>27189</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LONGBOARD CRUISER CLASSIC</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>27279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RELOJ STAPLE SILVER</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>39999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RELOJ CLIQUE</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>41999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RELOJ BABY G</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>46739</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RELOJ BASE PRO</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>51999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RELOJ G-SHOCK</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>65959</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RELOJ SENTRY SS ALL GOLD</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>71999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FIJACIONES NITRO CHARGER 18 M</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>75999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TABLA SNOW PRIME COLLAGE 158</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>104799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TABLA SNOW CINEMA 162</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>131999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LONGBOARD CARVER CRUISER</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SWEATER OLD CLASSIC</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BUZO POSTER</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>8189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CALZAS FLORAL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CANGURO MATCH</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CHALECO SHINNY</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BUZO GOLD COAST</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PANTALON CLOVER</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>11489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CAMISETA ROSARIO CENTRAL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SWEATER ALL DAY</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAMISETA LIVERPOOL FC</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BUZO SLOW SHOW</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>13499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BUZO RACHEL</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>13989</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CANGURO RUSTIC LOOSE</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CANGURO MIXTED</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BUZO HUE</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>14499</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CANGURO LOOSE BATIK</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CAMPERA PUFFER</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CAMISACO SUGAR</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>15989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CAMISETA ARGENTINA AFA 22</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CHOMBA ORIGINALS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>16799</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CANGURO SWXP GRAPHIC</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAMPERA PARKA URITORCO</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>21989</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BUZO LIVE</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAMPERA PILOTIN AEROREADY SEASONALS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>22999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BUZO SST BLOCKED</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CANGURO TREFOIL</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>24999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PANTALON ALWAYS ORIGINAL RELAXED</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BUZO DESIGNED FOR GAMEDAY</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>27999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAMPERA FUNNY DINO</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>28999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAMPERA WHISPER PUFFER</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>29689</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAMPERA BOLD CB</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>32999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BUZO ZENO TT</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>33599</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAMPERA ABRIGO OZY</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>33989</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAMPERA HUT</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>36999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAMPERA OUTLINE AS HYBRID</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>37399</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAMPERA AMBER LONG</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PANTALON BECKENBAUER</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CAMPERA ANORAK SNOW PASSAGE</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>74499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ARTICULO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PRECIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Celular Apple iPhone 6 32gb 1gb Ram 8mp Liberado 8mp</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>59999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Celular Reacondicionado iPhone 6s 16gb 2gb Ram Ios Original</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>64999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celular iPhone 7 32gb 2gb Ram 12mp 7mp Apple Original </t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>89999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 6s Plus 32 GBgris espacial</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>92990</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Celular Apple iPhone 7 128gb 2gb Ram Liberado 12mp Original</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>119999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iPhone 8 64gb Celular Liberado Refabricado Gris Espacial</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>139999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iPhone 7 Plus 128 GB plata</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 8 64 GB  gris espacial</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>174999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (3ª generación, 64 GB) - Blanco estelar</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>183299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 8 256 GB  gris espacial</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>194999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (2da generación) 64 GB - Negro</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>197999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 (64 GB) - Negro</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>206464</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 8 Plus 256 GB  oro</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>209750</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone SE 64 GBgris espacial</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>209990</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (2da generación) 128 GB - Negro</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>215999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>iPhone SE (2nd Generación) 128 Gb - Negro</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>215999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (3ª generación, 128 GB) - Azul medianoche</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>219999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 64 GB - Azul</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 (128 GB) - (PRODUCT)RED</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>237330</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Apple iPhone XR 128 GB - (PRODUCT)RED</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>238999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (2da generación) 256 GB - (PRODUCT)RED</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>263999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 (64 GB) - Verde</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>269999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 (64 Gb) - (product)red</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>269999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (3ª generación, 256 GB) - Blanco estelar</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>279999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 8 Plus 64 GB  oro</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>287495</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 mini (64 GB) - Morado</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>309990</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 (128 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>314999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 mini (128 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>322299</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE 3ªgen.2022-incluye Cargador-cuotas S/interes</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>344990</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro 64 GB Plata</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 mini (128 GB) - (PRODUCT)RED</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>349999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128 Gb) - Azul Medianoche (negro)</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>375999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 (128 Gb) - Negro Gtia Oficial Cuotas</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>379990</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 mini (256 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>399999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Mini 128gb-incluye Cargador Usb-c- Garantia</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>409990</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (256 GB) - Rosa</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>415999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 (256 GB) - Verde</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>415999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>421999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (512 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>439999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro (256 GB) - Plata</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>492969</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (128 GB) - Grafito</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>495048</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (128 Gb) - Plata</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>499999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro (256 GB) - Azul pacífico</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>509990</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>iPhone 11 Pro 256 GB Gris espacial</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>509990</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Apple iPhone 12 Pro Max (256 GB) - Grafito</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>544400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (256 GB) - Grafito</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>549999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro (512 GB) - Oro</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>604999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (512 GB) - Grafito</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>621682</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro 128gb-incluye Cagador-cuotas Sin Interes</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>659990</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (1 TB) - Plata</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>757999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>